--- a/Arbeit/comparing tools.xlsx
+++ b/Arbeit/comparing tools.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,21 +56,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Illustrator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QuarkXPress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.weakness in typeset
-2.only for windows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.easy using
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -81,29 +67,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inDesign Cs5 236.81Euro</t>
+    <t>1.professional softwar
+2.highly integration of typeset,design, image process and word process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Higher requirement for Hardware and only for Mac
+2.weakness for local application
+3.QuarkXPress 8 1349Euro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inDesign CS5 236.81Euro</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.professional softwar for typeset
 2.MathMagic for inDesign
 3. personal felling: something similler to the combination of potoshop and word, but more powerfull than word
-4. support second development</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.professional softwar
-2.highly integration of typeset,design, image process and word process</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Higher requirement for Hardware and only for Mac
-2.weakness for local application</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. not  support multipage
-Illustrator Cs5 236.81Euro</t>
+4. support second development
+5.compatible with all Adobe Applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Microsoft Publisher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.easy using
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.easy using for simple office application
+2.plentiful online template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.weakness in typeset
+2.only for windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.weakness for complex application
+2.only for windows</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,12 +460,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
     <col min="3" max="3" width="26.125" customWidth="1"/>
     <col min="4" max="4" width="24.125" customWidth="1"/>
@@ -483,57 +491,60 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="67.5">
+    <row r="4" spans="1:4" ht="54">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="67.5">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="162">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="5" spans="1:4" ht="135">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="67.5">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="54">
+    <row r="7" spans="1:4" ht="94.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
